--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/123/word_level_predictions_123.xlsx
@@ -5182,208 +5182,208 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -10221,57 +10221,57 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10694,470 +10694,470 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>11</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>12</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>11</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>13</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>11</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>14</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>11</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>15</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>11</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>16</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>11</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>17</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>11</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>18</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>11</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>19</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>11</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>20</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/123/word_level_predictions_123.xlsx
@@ -5182,208 +5182,208 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" t="n">
         <v>0</v>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>4</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>4</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10197,81 +10197,81 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>11</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>3</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10694,470 +10694,470 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C203" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C205" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
